--- a/xlsxmaps/level_0006.xlsx
+++ b/xlsxmaps/level_0006.xlsx
@@ -1443,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="7">
-        <v>0</v>
+        <v>41001000</v>
       </c>
       <c r="C7" s="8">
         <v>41014000</v>
@@ -1455,7 +1455,7 @@
         <v>41014000</v>
       </c>
       <c r="F7" s="8">
-        <v>0</v>
+        <v>41001000</v>
       </c>
       <c r="G7" s="8">
         <v>0</v>

--- a/xlsxmaps/level_0006.xlsx
+++ b/xlsxmaps/level_0006.xlsx
@@ -6,6 +6,7 @@
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId3"/>
+    <sheet name="工作表 1-1" sheetId="2" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -15,7 +16,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -23,6 +24,11 @@
     </font>
     <font>
       <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -53,27 +59,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -87,7 +78,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -102,37 +93,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
         <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -141,28 +102,13 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -172,41 +118,32 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -226,10 +163,10 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ff7fd0ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -246,10 +183,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -426,11 +363,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -439,34 +379,34 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -714,12 +654,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1010,7 +950,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1288,313 +1228,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
       <c r="A1" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>0</v>
+        <v>11000000</v>
+      </c>
+      <c r="B1" s="3">
+        <v>21014000</v>
       </c>
       <c r="C1" s="2">
-        <v>41014000</v>
-      </c>
-      <c r="D1" s="2">
-        <v>41001000</v>
-      </c>
-      <c r="E1" s="2">
-        <v>41014000</v>
-      </c>
-      <c r="F1" s="2">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2">
-        <v>0</v>
+        <v>11000000</v>
+      </c>
+      <c r="D1" s="4">
+        <v>21014000</v>
+      </c>
+      <c r="E1" s="4">
+        <v>11000000</v>
       </c>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="3">
-        <v>0</v>
+      <c r="A2" s="4">
+        <v>21014000</v>
       </c>
       <c r="B2" s="4">
-        <v>41014000</v>
-      </c>
-      <c r="C2" s="5">
-        <v>31001000</v>
-      </c>
-      <c r="D2" s="5">
-        <v>31015000</v>
-      </c>
-      <c r="E2" s="5">
-        <v>31001000</v>
-      </c>
-      <c r="F2" s="5">
-        <v>41014000</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
+        <v>11000000</v>
+      </c>
+      <c r="C2" s="4">
+        <v>21014000</v>
+      </c>
+      <c r="D2" s="4">
+        <v>11000000</v>
+      </c>
+      <c r="E2" s="4">
+        <v>21014000</v>
       </c>
     </row>
     <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" s="6">
-        <v>41001000</v>
-      </c>
-      <c r="B3" s="7">
-        <v>41001000</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="A3" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="B3" s="4">
         <v>21014000</v>
       </c>
-      <c r="D3" s="8">
-        <v>11001000</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="C3" s="5">
+        <v>11000000</v>
+      </c>
+      <c r="D3" s="3">
         <v>21014000</v>
       </c>
-      <c r="F3" s="8">
-        <v>41001000</v>
-      </c>
-      <c r="G3" s="8">
-        <v>41001000</v>
+      <c r="E3" s="2">
+        <v>11000000</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="6">
-        <v>41014000</v>
-      </c>
-      <c r="B4" s="7">
-        <v>41016000</v>
-      </c>
-      <c r="C4" s="8">
-        <v>21001000</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="A4" s="4">
+        <v>21014000</v>
+      </c>
+      <c r="B4" s="4">
         <v>11000000</v>
       </c>
-      <c r="E4" s="8">
-        <v>21001000</v>
-      </c>
-      <c r="F4" s="8">
-        <v>41016000</v>
-      </c>
-      <c r="G4" s="8">
-        <v>41014000</v>
+      <c r="C4" s="5">
+        <v>21014000</v>
+      </c>
+      <c r="D4" s="4">
+        <v>11000000</v>
+      </c>
+      <c r="E4" s="4">
+        <v>21014000</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" s="6">
-        <v>41001000</v>
-      </c>
-      <c r="B5" s="7">
-        <v>41001000</v>
-      </c>
-      <c r="C5" s="8">
+        <v>11000000</v>
+      </c>
+      <c r="B5" s="4">
         <v>21014000</v>
       </c>
-      <c r="D5" s="8">
-        <v>11001000</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="C5" s="4">
+        <v>11000000</v>
+      </c>
+      <c r="D5" s="4">
         <v>21014000</v>
       </c>
-      <c r="F5" s="8">
-        <v>41001000</v>
-      </c>
-      <c r="G5" s="8">
-        <v>41001000</v>
+      <c r="E5" s="4">
+        <v>11000000</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="6">
+      <c r="A6" s="3">
+        <v>21014000</v>
+      </c>
+      <c r="B6" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="C6" s="4">
+        <v>21014000</v>
+      </c>
+      <c r="D6" s="4">
+        <v>11000000</v>
+      </c>
+      <c r="E6" s="4">
+        <v>21014000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="5" width="16.3516" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.25" customHeight="1">
+      <c r="A1" s="2">
+        <v>31014000</v>
+      </c>
+      <c r="B1" s="3">
+        <v>41000000</v>
+      </c>
+      <c r="C1" s="2">
+        <v>31014000</v>
+      </c>
+      <c r="D1" s="4">
+        <v>41000000</v>
+      </c>
+      <c r="E1" s="4">
         <v>0</v>
       </c>
-      <c r="B6" s="7">
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" s="4">
+        <v>41000000</v>
+      </c>
+      <c r="B2" s="4">
+        <v>31014000</v>
+      </c>
+      <c r="C2" s="4">
+        <v>41000000</v>
+      </c>
+      <c r="D2" s="4">
+        <v>31014000</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="20.05" customHeight="1">
+      <c r="A3" s="2">
+        <v>31014000</v>
+      </c>
+      <c r="B3" s="5">
+        <v>41000000</v>
+      </c>
+      <c r="C3" s="5">
+        <v>31014000</v>
+      </c>
+      <c r="D3" s="4">
+        <v>41000000</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" s="4">
+        <v>41000000</v>
+      </c>
+      <c r="B4" s="5">
+        <v>31000000</v>
+      </c>
+      <c r="C4" s="8">
         <v>41014000</v>
       </c>
-      <c r="C6" s="8">
-        <v>31001000</v>
-      </c>
-      <c r="D6" s="8">
-        <v>31015000</v>
-      </c>
-      <c r="E6" s="8">
-        <v>31001000</v>
-      </c>
-      <c r="F6" s="8">
-        <v>41014000</v>
-      </c>
-      <c r="G6" s="8">
+      <c r="D4" s="2">
+        <v>31014000</v>
+      </c>
+      <c r="E4" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="6">
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" s="2">
+        <v>31014000</v>
+      </c>
+      <c r="B5" s="4">
+        <v>41000000</v>
+      </c>
+      <c r="C5" s="4">
+        <v>31014000</v>
+      </c>
+      <c r="D5" s="4">
+        <v>41000000</v>
+      </c>
+      <c r="E5" s="4">
         <v>0</v>
       </c>
-      <c r="B7" s="7">
-        <v>41001000</v>
-      </c>
-      <c r="C7" s="8">
-        <v>41014000</v>
-      </c>
-      <c r="D7" s="8">
-        <v>41001000</v>
-      </c>
-      <c r="E7" s="8">
-        <v>41014000</v>
-      </c>
-      <c r="F7" s="8">
-        <v>41001000</v>
-      </c>
-      <c r="G7" s="8">
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" s="4">
+        <v>41000000</v>
+      </c>
+      <c r="B6" s="4">
+        <v>31014000</v>
+      </c>
+      <c r="C6" s="4">
+        <v>41000000</v>
+      </c>
+      <c r="D6" s="4">
+        <v>31014000</v>
+      </c>
+      <c r="E6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/xlsxmaps/level_0006.xlsx
+++ b/xlsxmaps/level_0006.xlsx
@@ -43,7 +43,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -62,14 +62,8 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -182,13 +176,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -219,10 +300,34 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -258,7 +363,7 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ff7fd0ff"/>
-      <rgbColor rgb="ff7fd0ff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1320,7 +1425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1332,25 +1437,25 @@
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
       <c r="A1" s="2">
-        <v>11000000</v>
+        <v>11001000</v>
       </c>
       <c r="B1" s="3">
         <v>11000000</v>
       </c>
       <c r="C1" s="4">
-        <v>11000000</v>
+        <v>11001000</v>
       </c>
       <c r="D1" s="4">
         <v>0</v>
       </c>
       <c r="E1" s="4">
-        <v>11000000</v>
+        <v>11001000</v>
       </c>
       <c r="F1" s="4">
         <v>11000000</v>
       </c>
       <c r="G1" s="4">
-        <v>11000000</v>
+        <v>11001000</v>
       </c>
     </row>
     <row r="2" ht="20.25" customHeight="1">
@@ -1358,7 +1463,7 @@
         <v>11000000</v>
       </c>
       <c r="B2" s="3">
-        <v>11000000</v>
+        <v>11001000</v>
       </c>
       <c r="C2" s="4">
         <v>11000000</v>
@@ -1370,7 +1475,7 @@
         <v>11000000</v>
       </c>
       <c r="F2" s="4">
-        <v>11000000</v>
+        <v>11001000</v>
       </c>
       <c r="G2" s="4">
         <v>11000000</v>
@@ -1490,6 +1595,33 @@
       <c r="G7" s="4">
         <v>0</v>
       </c>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
@@ -1502,14 +1634,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="10" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="16.3516" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1537,10 +1669,10 @@
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="B2" s="3">
-        <v>11000000</v>
+        <v>21001000</v>
       </c>
       <c r="C2" s="4">
         <v>0</v>
@@ -1549,10 +1681,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4">
-        <v>11000000</v>
+        <v>21001000</v>
       </c>
       <c r="F2" s="4">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="G2" s="4">
         <v>0</v>
@@ -1589,10 +1721,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="7">
-        <v>11000000</v>
-      </c>
-      <c r="D4" s="11">
-        <v>11000000</v>
+        <v>21000000</v>
+      </c>
+      <c r="D4" s="8">
+        <v>21000000</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -1672,6 +1804,33 @@
       <c r="G7" s="4">
         <v>0</v>
       </c>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
@@ -1684,14 +1843,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="12" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="20" customWidth="1"/>
+    <col min="8" max="16384" width="16.3516" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1773,7 +1932,7 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>0</v>
       </c>
       <c r="E4" s="3">
@@ -1854,6 +2013,33 @@
       <c r="G7" s="4">
         <v>0</v>
       </c>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
@@ -1866,14 +2052,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="13" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="16.3516" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1907,10 +2093,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>21000000</v>
+        <v>31000000</v>
       </c>
       <c r="D2" s="4">
-        <v>21000000</v>
+        <v>31000000</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -1955,7 +2141,7 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>0</v>
       </c>
       <c r="E4" s="3">
@@ -2036,6 +2222,33 @@
       <c r="G7" s="4">
         <v>0</v>
       </c>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
@@ -2048,14 +2261,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="14" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="22" customWidth="1"/>
+    <col min="8" max="16384" width="16.3516" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -2089,13 +2302,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>21000000</v>
+        <v>41001000</v>
       </c>
       <c r="D2" s="4">
-        <v>21000000</v>
+        <v>41000000</v>
       </c>
       <c r="E2" s="4">
-        <v>21000000</v>
+        <v>41001000</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
@@ -2135,13 +2348,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="7">
-        <v>21000000</v>
-      </c>
-      <c r="D4" s="11">
-        <v>21000000</v>
+        <v>41000000</v>
+      </c>
+      <c r="D4" s="8">
+        <v>41001000</v>
       </c>
       <c r="E4" s="3">
-        <v>21000000</v>
+        <v>41000000</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -2218,6 +2431,33 @@
       <c r="G7" s="4">
         <v>0</v>
       </c>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
@@ -2230,14 +2470,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="15" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="23" customWidth="1"/>
+    <col min="8" max="16384" width="16.3516" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -2319,7 +2559,7 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>0</v>
       </c>
       <c r="E4" s="3">
@@ -2337,19 +2577,19 @@
         <v>0</v>
       </c>
       <c r="B5" s="9">
-        <v>0</v>
+        <v>31000000</v>
       </c>
       <c r="C5" s="9">
-        <v>21000000</v>
+        <v>31001000</v>
       </c>
       <c r="D5" s="4">
-        <v>21000000</v>
+        <v>31001000</v>
       </c>
       <c r="E5" s="4">
-        <v>21000000</v>
+        <v>31000000</v>
       </c>
       <c r="F5" s="4">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
@@ -2400,6 +2640,33 @@
       <c r="G7" s="4">
         <v>0</v>
       </c>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/xlsxmaps/level_0006.xlsx
+++ b/xlsxmaps/level_0006.xlsx
@@ -1,46 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\接收文件\厨房\编辑关卡\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A51CAA-6AB7-4FA8-AFE5-3B0A1AF24563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表 1" sheetId="1" r:id="rId3"/>
-    <sheet name="工作表 1-1" sheetId="2" r:id="rId4"/>
-    <sheet name="工作表 1-1-1" sheetId="3" r:id="rId5"/>
-    <sheet name="工作表 1-1-1-1" sheetId="4" r:id="rId6"/>
-    <sheet name="工作表 1-1-1-2" sheetId="5" r:id="rId7"/>
-    <sheet name="工作表 1-1-1-3" sheetId="6" r:id="rId8"/>
+    <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表 1-1" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表 1-1-1" sheetId="3" r:id="rId3"/>
+    <sheet name="工作表 1-1-1-1" sheetId="4" r:id="rId4"/>
+    <sheet name="工作表 1-1-1-2" sheetId="5" r:id="rId5"/>
+    <sheet name="工作表 1-1-1-3" sheetId="6" r:id="rId6"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -265,112 +267,170 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="24">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ff7fd0ff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FF7FD0FF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -572,7 +632,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -591,7 +651,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -621,7 +681,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -647,7 +707,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -673,7 +733,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -699,7 +759,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -725,7 +785,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -751,7 +811,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -777,7 +837,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -803,7 +863,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -829,7 +889,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -842,9 +902,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -861,7 +927,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -880,7 +946,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -906,7 +972,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -932,7 +998,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -958,7 +1024,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -984,7 +1050,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1010,7 +1076,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1036,7 +1102,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1062,7 +1128,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1088,7 +1154,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1114,7 +1180,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1127,9 +1193,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1143,7 +1215,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1162,7 +1234,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1192,7 +1264,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1218,7 +1290,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1244,7 +1316,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1270,7 +1342,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1296,7 +1368,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1322,7 +1394,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1348,7 +1420,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1374,7 +1446,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1400,7 +1472,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1413,98 +1485,107 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1">
-      <c r="A1" s="2">
+    <row r="1" spans="1:7" s="23" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="9">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A2" s="2">
         <v>11001000</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B2" s="3">
         <v>11000000</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C2" s="4">
         <v>11001000</v>
       </c>
-      <c r="D1" s="4">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4">
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
         <v>11001000</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F2" s="4">
         <v>11000000</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G2" s="4">
         <v>11001000</v>
       </c>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="2">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="2">
         <v>11000000</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B3" s="3">
         <v>11001000</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C3" s="4">
         <v>11000000</v>
       </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
         <v>11000000</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F3" s="4">
         <v>11001000</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G3" s="4">
         <v>11000000</v>
       </c>
     </row>
-    <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -1527,7 +1608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="9">
         <v>0</v>
       </c>
@@ -1550,7 +1631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -1573,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -1596,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="14.7" customHeight="1">
+    <row r="8" spans="1:7" ht="14.65" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -1605,7 +1686,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" ht="14.7" customHeight="1">
+    <row r="9" spans="1:7" ht="14.65" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -1614,7 +1695,7 @@
       <c r="F9" s="14"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" ht="14.7" customHeight="1">
+    <row r="10" spans="1:7" ht="14.65" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -1624,8 +1705,9 @@
       <c r="G10" s="18"/>
     </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1633,18 +1715,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="19" customWidth="1"/>
+    <col min="1" max="8" width="16.28515625" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -1667,89 +1751,89 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
+    <row r="2" spans="1:7" s="23" customFormat="1" ht="20.25" customHeight="1">
       <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="2">
         <v>21000000</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B3" s="3">
         <v>21001000</v>
       </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
         <v>21001000</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F3" s="4">
         <v>21000000</v>
       </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
       <c r="G3" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="5">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="5">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
         <v>21000000</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D5" s="8">
         <v>21000000</v>
       </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="9">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>0</v>
       </c>
       <c r="F5" s="4">
@@ -1759,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -1782,7 +1866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -1805,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="14.7" customHeight="1">
+    <row r="8" spans="1:7" ht="14.65" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -1814,7 +1898,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" ht="14.7" customHeight="1">
+    <row r="9" spans="1:7" ht="14.65" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -1823,7 +1907,7 @@
       <c r="F9" s="14"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" ht="14.7" customHeight="1">
+    <row r="10" spans="1:7" ht="14.65" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -1833,8 +1917,9 @@
       <c r="G10" s="18"/>
     </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1842,18 +1927,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="20" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="20" customWidth="1"/>
+    <col min="1" max="8" width="16.28515625" style="20" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -1876,7 +1961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
+    <row r="2" spans="1:7" ht="20.25" customHeight="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1899,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="20.05" customHeight="1">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1922,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -1945,7 +2030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="9">
         <v>0</v>
       </c>
@@ -1968,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -1991,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -2014,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="14.7" customHeight="1">
+    <row r="8" spans="1:7" ht="14.65" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -2023,7 +2108,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" ht="14.7" customHeight="1">
+    <row r="9" spans="1:7" ht="14.65" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -2032,7 +2117,7 @@
       <c r="F9" s="14"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" ht="14.7" customHeight="1">
+    <row r="10" spans="1:7" ht="14.65" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -2042,8 +2127,9 @@
       <c r="G10" s="18"/>
     </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2051,18 +2137,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="21" customWidth="1"/>
+    <col min="1" max="8" width="16.28515625" style="21" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -2085,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
+    <row r="2" spans="1:7" ht="20.25" customHeight="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2108,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="20.05" customHeight="1">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -2131,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -2154,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="9">
         <v>0</v>
       </c>
@@ -2177,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -2200,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -2223,7 +2309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="14.7" customHeight="1">
+    <row r="8" spans="1:7" ht="14.65" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -2232,7 +2318,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" ht="14.7" customHeight="1">
+    <row r="9" spans="1:7" ht="14.65" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -2241,7 +2327,7 @@
       <c r="F9" s="14"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" ht="14.7" customHeight="1">
+    <row r="10" spans="1:7" ht="14.65" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -2251,8 +2337,9 @@
       <c r="G10" s="18"/>
     </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2260,18 +2347,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="22" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="22" customWidth="1"/>
+    <col min="1" max="8" width="16.28515625" style="22" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -2294,7 +2381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
+    <row r="2" spans="1:7" ht="20.25" customHeight="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2317,7 +2404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="20.05" customHeight="1">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -2340,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -2363,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="9">
         <v>0</v>
       </c>
@@ -2386,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -2409,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -2432,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="14.7" customHeight="1">
+    <row r="8" spans="1:7" ht="14.65" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -2441,7 +2528,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" ht="14.7" customHeight="1">
+    <row r="9" spans="1:7" ht="14.65" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -2450,7 +2537,7 @@
       <c r="F9" s="14"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" ht="14.7" customHeight="1">
+    <row r="10" spans="1:7" ht="14.65" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -2460,8 +2547,9 @@
       <c r="G10" s="18"/>
     </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2469,18 +2557,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="23" customWidth="1"/>
+    <col min="1" max="8" width="16.28515625" style="23" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -2503,7 +2591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
+    <row r="2" spans="1:7" ht="20.25" customHeight="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2526,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="20.05" customHeight="1">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -2549,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -2572,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="9">
         <v>0</v>
       </c>
@@ -2595,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -2618,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -2641,7 +2729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="14.7" customHeight="1">
+    <row r="8" spans="1:7" ht="14.65" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -2650,7 +2738,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" ht="14.7" customHeight="1">
+    <row r="9" spans="1:7" ht="14.65" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -2659,7 +2747,7 @@
       <c r="F9" s="14"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" ht="14.7" customHeight="1">
+    <row r="10" spans="1:7" ht="14.65" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -2669,8 +2757,9 @@
       <c r="G10" s="18"/>
     </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
